--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/KANSAS_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/KANSAS_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D968"/>
+  <dimension ref="A1:D962"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C28">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C42">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C73">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C84">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C112">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C113">
@@ -1946,7 +1946,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C120">
@@ -2133,7 +2133,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C134">
@@ -2281,7 +2281,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C163">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C177">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C181">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C188">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C189">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C190">
@@ -3006,12 +3006,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C201">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C204">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C209">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C212">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C214">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C233">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C240">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C244">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C256">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C263">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C273">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C283">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C287">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C292">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C295">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C307">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C311">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C314">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C322">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C324">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C335">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C340">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C343">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C354">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C362">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C370">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C373">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C380">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C387">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C391">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C395">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C397">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C410">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C416">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C421">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C426">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C436">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C442">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C452">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C456">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C459">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C519">
@@ -7622,7 +7622,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C552">
@@ -7822,7 +7822,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C567">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C579">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C587">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C592">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C614">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C633">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C640">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C651">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C661">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C667">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C673">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C684">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C687">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C689">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C692">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C699">
@@ -9605,7 +9605,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C703">
@@ -9618,7 +9618,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C704">
@@ -9644,7 +9644,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C706">
@@ -9797,7 +9797,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C717">
@@ -9823,7 +9823,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C719">
@@ -9914,7 +9914,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C726">
@@ -10005,7 +10005,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C733">
@@ -10031,7 +10031,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C735">
@@ -10122,7 +10122,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C742">
@@ -10135,7 +10135,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C743">
@@ -10148,7 +10148,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C744">
@@ -10161,7 +10161,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C745">
@@ -10909,7 +10909,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C801">
@@ -11031,7 +11031,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C810">
@@ -11057,7 +11057,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C812">
@@ -11070,7 +11070,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C813">
@@ -11161,7 +11161,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C820">
@@ -11270,7 +11270,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C828">
@@ -11387,7 +11387,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C837">
@@ -11491,7 +11491,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C845">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C856">
@@ -11751,7 +11751,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C865">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C867">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C869">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C872">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C883">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C884">
@@ -12037,7 +12037,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C887">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C891">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C910">
@@ -12606,7 +12606,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C930">
@@ -12684,7 +12684,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C936">
@@ -12736,7 +12736,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C940">
@@ -12879,7 +12879,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C951">
@@ -12892,7 +12892,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C952">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C956">
@@ -13030,41 +13030,6 @@
       </c>
       <c r="D962">
         <v>1</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
